--- a/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14692,6 +14692,339 @@
         <v>400</v>
       </c>
       <c r="I385" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>45721.73015877315</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F386" t="n">
+        <v>400</v>
+      </c>
+      <c r="G386" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H386" t="n">
+        <v>400</v>
+      </c>
+      <c r="I386" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>45721.73018203703</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F387" t="n">
+        <v>400</v>
+      </c>
+      <c r="G387" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H387" t="n">
+        <v>400</v>
+      </c>
+      <c r="I387" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45721.7302053125</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F388" t="n">
+        <v>400</v>
+      </c>
+      <c r="G388" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H388" t="n">
+        <v>400</v>
+      </c>
+      <c r="I388" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45722.23047579861</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F389" t="n">
+        <v>400</v>
+      </c>
+      <c r="G389" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H389" t="n">
+        <v>400</v>
+      </c>
+      <c r="I389" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45722.23049802084</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F390" t="n">
+        <v>400</v>
+      </c>
+      <c r="G390" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H390" t="n">
+        <v>400</v>
+      </c>
+      <c r="I390" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45722.23052140047</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F391" t="n">
+        <v>400</v>
+      </c>
+      <c r="G391" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H391" t="n">
+        <v>400</v>
+      </c>
+      <c r="I391" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45723.19127907408</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F392" t="n">
+        <v>400</v>
+      </c>
+      <c r="G392" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H392" t="n">
+        <v>400</v>
+      </c>
+      <c r="I392" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45723.19130241898</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F393" t="n">
+        <v>400</v>
+      </c>
+      <c r="G393" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H393" t="n">
+        <v>400</v>
+      </c>
+      <c r="I393" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45723.19132570602</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F394" t="n">
+        <v>400</v>
+      </c>
+      <c r="G394" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H394" t="n">
+        <v>400</v>
+      </c>
+      <c r="I394" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14706,7 +15039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I500"/>
+  <dimension ref="A1:I512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33221,6 +33554,450 @@
         <v>400</v>
       </c>
       <c r="I500" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2" t="n">
+        <v>45721.72839921296</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F501" t="n">
+        <v>400</v>
+      </c>
+      <c r="G501" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H501" t="n">
+        <v>400</v>
+      </c>
+      <c r="I501" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2" t="n">
+        <v>45721.7284225</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F502" t="n">
+        <v>400</v>
+      </c>
+      <c r="G502" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H502" t="n">
+        <v>400</v>
+      </c>
+      <c r="I502" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2" t="n">
+        <v>45721.72844564815</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F503" t="n">
+        <v>400</v>
+      </c>
+      <c r="G503" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H503" t="n">
+        <v>400</v>
+      </c>
+      <c r="I503" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2" t="n">
+        <v>45722.22854285879</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F504" t="n">
+        <v>400</v>
+      </c>
+      <c r="G504" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H504" t="n">
+        <v>400</v>
+      </c>
+      <c r="I504" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2" t="n">
+        <v>45722.22856443287</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F505" t="n">
+        <v>400</v>
+      </c>
+      <c r="G505" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H505" t="n">
+        <v>400</v>
+      </c>
+      <c r="I505" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2" t="n">
+        <v>45722.22858758102</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F506" t="n">
+        <v>400</v>
+      </c>
+      <c r="G506" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H506" t="n">
+        <v>400</v>
+      </c>
+      <c r="I506" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="2" t="n">
+        <v>45722.72868413194</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F507" t="n">
+        <v>400</v>
+      </c>
+      <c r="G507" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H507" t="n">
+        <v>400</v>
+      </c>
+      <c r="I507" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="2" t="n">
+        <v>45722.72870657407</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F508" t="n">
+        <v>400</v>
+      </c>
+      <c r="G508" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H508" t="n">
+        <v>400</v>
+      </c>
+      <c r="I508" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="2" t="n">
+        <v>45722.72872986111</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F509" t="n">
+        <v>400</v>
+      </c>
+      <c r="G509" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H509" t="n">
+        <v>400</v>
+      </c>
+      <c r="I509" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="2" t="n">
+        <v>45723.22882704861</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F510" t="n">
+        <v>400</v>
+      </c>
+      <c r="G510" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H510" t="n">
+        <v>400</v>
+      </c>
+      <c r="I510" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="2" t="n">
+        <v>45723.22884876157</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F511" t="n">
+        <v>400</v>
+      </c>
+      <c r="G511" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H511" t="n">
+        <v>400</v>
+      </c>
+      <c r="I511" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="2" t="n">
+        <v>45723.22887202547</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F512" t="n">
+        <v>400</v>
+      </c>
+      <c r="G512" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H512" t="n">
+        <v>400</v>
+      </c>
+      <c r="I512" t="n">
         <v>25</v>
       </c>
     </row>
@@ -33235,7 +34012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48938,6 +49715,339 @@
         <v>400</v>
       </c>
       <c r="I424" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>45721.72979140046</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F425" t="n">
+        <v>400</v>
+      </c>
+      <c r="G425" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H425" t="n">
+        <v>400</v>
+      </c>
+      <c r="I425" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>45721.72981465278</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F426" t="n">
+        <v>400</v>
+      </c>
+      <c r="G426" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H426" t="n">
+        <v>400</v>
+      </c>
+      <c r="I426" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>45721.72983799769</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F427" t="n">
+        <v>400</v>
+      </c>
+      <c r="G427" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H427" t="n">
+        <v>400</v>
+      </c>
+      <c r="I427" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>45722.23010865741</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F428" t="n">
+        <v>400</v>
+      </c>
+      <c r="G428" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H428" t="n">
+        <v>400</v>
+      </c>
+      <c r="I428" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2" t="n">
+        <v>45722.23013063658</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F429" t="n">
+        <v>400</v>
+      </c>
+      <c r="G429" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H429" t="n">
+        <v>400</v>
+      </c>
+      <c r="I429" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2" t="n">
+        <v>45722.23015388889</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F430" t="n">
+        <v>400</v>
+      </c>
+      <c r="G430" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H430" t="n">
+        <v>400</v>
+      </c>
+      <c r="I430" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2" t="n">
+        <v>45723.19126707176</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F431" t="n">
+        <v>400</v>
+      </c>
+      <c r="G431" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H431" t="n">
+        <v>400</v>
+      </c>
+      <c r="I431" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2" t="n">
+        <v>45723.19129023148</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F432" t="n">
+        <v>400</v>
+      </c>
+      <c r="G432" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H432" t="n">
+        <v>400</v>
+      </c>
+      <c r="I432" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2" t="n">
+        <v>45723.19131362269</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F433" t="n">
+        <v>400</v>
+      </c>
+      <c r="G433" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H433" t="n">
+        <v>400</v>
+      </c>
+      <c r="I433" t="n">
         <v>19</v>
       </c>
     </row>
@@ -48952,7 +50062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62325,6 +63435,339 @@
         <v>9</v>
       </c>
     </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>45721.73010056713</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F362" t="n">
+        <v>400</v>
+      </c>
+      <c r="G362" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H362" t="n">
+        <v>400</v>
+      </c>
+      <c r="I362" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>45721.73012371528</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F363" t="n">
+        <v>400</v>
+      </c>
+      <c r="G363" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H363" t="n">
+        <v>400</v>
+      </c>
+      <c r="I363" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>45721.73014709491</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F364" t="n">
+        <v>400</v>
+      </c>
+      <c r="G364" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H364" t="n">
+        <v>400</v>
+      </c>
+      <c r="I364" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>45722.23024466435</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>400</v>
+      </c>
+      <c r="G365" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H365" t="n">
+        <v>400</v>
+      </c>
+      <c r="I365" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>45722.23026591435</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>400</v>
+      </c>
+      <c r="G366" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H366" t="n">
+        <v>400</v>
+      </c>
+      <c r="I366" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>45722.23028918981</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>400</v>
+      </c>
+      <c r="G367" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H367" t="n">
+        <v>400</v>
+      </c>
+      <c r="I367" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>45723.19114016204</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>400</v>
+      </c>
+      <c r="G368" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H368" t="n">
+        <v>400</v>
+      </c>
+      <c r="I368" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>45723.19116321759</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>400</v>
+      </c>
+      <c r="G369" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H369" t="n">
+        <v>400</v>
+      </c>
+      <c r="I369" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>45723.19118659722</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>400</v>
+      </c>
+      <c r="G370" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H370" t="n">
+        <v>400</v>
+      </c>
+      <c r="I370" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I394"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15025,6 +15025,117 @@
         <v>400</v>
       </c>
       <c r="I394" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>45723.57864375</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>400</v>
+      </c>
+      <c r="G395" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H395" t="n">
+        <v>400</v>
+      </c>
+      <c r="I395" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>45723.57866737268</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>400</v>
+      </c>
+      <c r="G396" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H396" t="n">
+        <v>400</v>
+      </c>
+      <c r="I396" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>45723.57869055556</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>400</v>
+      </c>
+      <c r="G397" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H397" t="n">
+        <v>400</v>
+      </c>
+      <c r="I397" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15039,7 +15150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I512"/>
+  <dimension ref="A1:I515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33998,6 +34109,117 @@
         <v>400</v>
       </c>
       <c r="I512" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="2" t="n">
+        <v>45723.72896837963</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F513" t="n">
+        <v>400</v>
+      </c>
+      <c r="G513" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H513" t="n">
+        <v>400</v>
+      </c>
+      <c r="I513" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="2" t="n">
+        <v>45723.72899072916</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F514" t="n">
+        <v>400</v>
+      </c>
+      <c r="G514" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H514" t="n">
+        <v>400</v>
+      </c>
+      <c r="I514" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="2" t="n">
+        <v>45723.72901400463</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F515" t="n">
+        <v>400</v>
+      </c>
+      <c r="G515" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H515" t="n">
+        <v>400</v>
+      </c>
+      <c r="I515" t="n">
         <v>25</v>
       </c>
     </row>
@@ -34012,7 +34234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -50048,6 +50270,117 @@
         <v>400</v>
       </c>
       <c r="I433" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2" t="n">
+        <v>45723.57864783565</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F434" t="n">
+        <v>400</v>
+      </c>
+      <c r="G434" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H434" t="n">
+        <v>400</v>
+      </c>
+      <c r="I434" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2" t="n">
+        <v>45723.57867114583</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F435" t="n">
+        <v>400</v>
+      </c>
+      <c r="G435" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H435" t="n">
+        <v>400</v>
+      </c>
+      <c r="I435" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2" t="n">
+        <v>45723.57869430556</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>0x13</t>
+        </is>
+      </c>
+      <c r="F436" t="n">
+        <v>400</v>
+      </c>
+      <c r="G436" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H436" t="n">
+        <v>400</v>
+      </c>
+      <c r="I436" t="n">
         <v>19</v>
       </c>
     </row>
@@ -50062,7 +50395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I370"/>
+  <dimension ref="A1:I373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63768,6 +64101,117 @@
         <v>9</v>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>45723.73071651621</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>400</v>
+      </c>
+      <c r="G371" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H371" t="n">
+        <v>400</v>
+      </c>
+      <c r="I371" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>45723.73073978009</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>400</v>
+      </c>
+      <c r="G372" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H372" t="n">
+        <v>400</v>
+      </c>
+      <c r="I372" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>45723.73076302083</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>0x9</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>400</v>
+      </c>
+      <c r="G373" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H373" t="n">
+        <v>400</v>
+      </c>
+      <c r="I373" t="n">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1372,117 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08020857639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08023003472</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08025329861</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1386,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3547,6 +3658,339 @@
         <v>400</v>
       </c>
       <c r="I58" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45729.06475774306</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45729.06477990741</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45729.06480305555</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45729.14823328704</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45729.14825528935</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45729.14827864584</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45729.23170871528</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45729.23173081018</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45729.23175395833</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3561,7 +4005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4945,117 @@
         <v>400</v>
       </c>
       <c r="I25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45729.08020857639</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>400</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45729.08023003472</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>400</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45729.08025329861</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>400</v>
+      </c>
+      <c r="I28" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4515,7 +5070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6679,6 +7234,339 @@
         <v>25</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45729.06475774306</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>400</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45729.06477990741</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>400</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45729.06480305555</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>400</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45729.14823328704</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>400</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45729.14825528935</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>400</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45729.14827864584</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>400</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45729.23170871528</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>400</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45729.23173081018</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>400</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45729.23175395833</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>400</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.58035023148</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.5803721875</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58039546297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1497,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3991,6 +4102,672 @@
         <v>400</v>
       </c>
       <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.31518523148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.31520722222</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.3152303588</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.39866047454</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.39868246527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.39870561343</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.48213673611</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.48215891204</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.482181875</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.56561206019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.56563403935</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.56565724537</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.64909206019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.64911011574</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.64913337963</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.73256368055</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.73258552083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.73260887731</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4005,7 +4782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5056,6 +5833,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.58035023148</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.5803721875</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58039546297</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1b,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5070,7 +5958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7567,6 +8455,672 @@
         <v>25</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45729.31518523148</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>400</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45729.31520722222</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>400</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45729.3152303588</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>400</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45729.39866047454</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>400</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45729.39868246527</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>400</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45729.39870561343</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>400</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45729.48213673611</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45729.48215891204</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>400</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45729.482181875</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>400</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45729.56561206019</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>400</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45729.56563403935</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>400</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45729.56565724537</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>400</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45729.64909206019</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>400</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45729.64911011574</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>400</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45729.64913337963</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>400</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45729.73256368055</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>400</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45729.73258552083</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>400</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45729.73260887731</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>400</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
+++ b/sensorCSV/SAG2_sensor_data_with_decimal.xlsx
@@ -1608,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4768,6 +4768,339 @@
         <v>400</v>
       </c>
       <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8160389699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.81606084491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.81608430555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.89951609954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.89953711806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.89956038194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.98299244213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.98301351852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.98303674768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5958,7 +6291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9121,6 +9454,339 @@
         <v>25</v>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45729.8160389699</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>400</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45729.81606084491</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>400</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45729.81608430555</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>400</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45729.89951609954</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>400</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45729.89953711806</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>400</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45729.89956038194</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>400</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45729.98299244213</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>400</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45729.98301351852</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>400</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45729.98303674768</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>400</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
